--- a/deployment/Omaha_Cal_Info_CE06ISSP_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE06ISSP_00003.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\# OOI_Asset_Management\CE_mod\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="468" windowWidth="25608" windowHeight="16068" tabRatio="579"/>
+    <workbookView xWindow="600" yWindow="465" windowWidth="25605" windowHeight="16065" tabRatio="579"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Asset_Cal_Info!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2245,24 +2240,24 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
@@ -2303,7 +2298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2320,7 +2315,7 @@
         <v>42237</v>
       </c>
       <c r="F2" s="40">
-        <v>0.35347222222222219</v>
+        <v>0.64513888888888882</v>
       </c>
       <c r="G2" s="41">
         <v>42294</v>
@@ -2346,91 +2341,91 @@
         <v>-124.27265</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D5" s="10"/>
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D6" s="10"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D7" s="10"/>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D8" s="10"/>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D9" s="10"/>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D10" s="10"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D11" s="10"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D13" s="10"/>
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D14" s="10"/>
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D15" s="10"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D16" s="10"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:7" s="9" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="D17" s="10"/>
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
@@ -2459,16 +2454,16 @@
       <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="5" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="5" width="12.42578125" customWidth="1"/>
     <col min="6" max="6" width="17" style="48" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" customWidth="1"/>
-    <col min="8" max="8" width="57.33203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" customWidth="1"/>
+    <col min="8" max="8" width="57.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2500,7 +2495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2511,7 +2506,7 @@
       <c r="H2" s="16"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>69</v>
       </c>
@@ -2540,7 +2535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>69</v>
       </c>
@@ -2598,7 +2593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>69</v>
       </c>
@@ -2627,7 +2622,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="23"/>
@@ -2638,7 +2633,7 @@
       <c r="H7" s="21"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>68</v>
       </c>
@@ -2667,7 +2662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>68</v>
       </c>
@@ -2694,7 +2689,7 @@
       </c>
       <c r="I9" s="27"/>
     </row>
-    <row r="10" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>68</v>
       </c>
@@ -2721,7 +2716,7 @@
       </c>
       <c r="I10" s="27"/>
     </row>
-    <row r="11" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>68</v>
       </c>
@@ -2748,7 +2743,7 @@
       </c>
       <c r="I11" s="27"/>
     </row>
-    <row r="12" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>68</v>
       </c>
@@ -2775,7 +2770,7 @@
       </c>
       <c r="I12" s="27"/>
     </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>68</v>
       </c>
@@ -2802,7 +2797,7 @@
       </c>
       <c r="I13" s="27"/>
     </row>
-    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>68</v>
       </c>
@@ -2829,7 +2824,7 @@
       </c>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>68</v>
       </c>
@@ -2856,7 +2851,7 @@
       </c>
       <c r="I15" s="27"/>
     </row>
-    <row r="16" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="23"/>
@@ -2867,7 +2862,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>70</v>
       </c>
@@ -2896,7 +2891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>70</v>
       </c>
@@ -2925,7 +2920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="23"/>
@@ -2936,7 +2931,7 @@
       <c r="H19" s="21"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>71</v>
       </c>
@@ -2965,7 +2960,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>71</v>
       </c>
@@ -2994,7 +2989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>71</v>
       </c>
@@ -3023,7 +3018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>71</v>
       </c>
@@ -3052,7 +3047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>71</v>
       </c>
@@ -3081,7 +3076,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>71</v>
       </c>
@@ -3110,7 +3105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>71</v>
       </c>
@@ -3139,7 +3134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
       <c r="B27" s="18"/>
       <c r="C27" s="23"/>
@@ -3150,7 +3145,7 @@
       <c r="H27" s="21"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>72</v>
       </c>
@@ -3177,7 +3172,7 @@
       </c>
       <c r="I28" s="16"/>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>72</v>
       </c>
@@ -3204,7 +3199,7 @@
       </c>
       <c r="I29" s="16"/>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>72</v>
       </c>
@@ -3231,7 +3226,7 @@
       </c>
       <c r="I30" s="16"/>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="23"/>
@@ -3242,7 +3237,7 @@
       <c r="H31" s="21"/>
       <c r="I31" s="16"/>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>73</v>
       </c>
@@ -3271,7 +3266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
@@ -3300,7 +3295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>73</v>
       </c>
@@ -3329,7 +3324,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>73</v>
       </c>
@@ -3358,7 +3353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>73</v>
       </c>
@@ -3387,7 +3382,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>73</v>
       </c>
@@ -3416,7 +3411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>73</v>
       </c>
@@ -3445,7 +3440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>73</v>
       </c>
@@ -3474,7 +3469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>73</v>
       </c>
@@ -3503,7 +3498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>73</v>
       </c>
@@ -3532,7 +3527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="23"/>
@@ -3543,7 +3538,7 @@
       <c r="H42" s="21"/>
       <c r="I42" s="16"/>
     </row>
-    <row r="43" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>74</v>
       </c>
@@ -3572,7 +3567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>74</v>
       </c>
@@ -3601,7 +3596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="23"/>
@@ -3612,7 +3607,7 @@
       <c r="H45" s="21"/>
       <c r="I45" s="16"/>
     </row>
-    <row r="46" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>75</v>
       </c>
@@ -3639,7 +3634,7 @@
       </c>
       <c r="I46" s="16"/>
     </row>
-    <row r="47" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>75</v>
       </c>
@@ -3666,7 +3661,7 @@
       </c>
       <c r="I47" s="16"/>
     </row>
-    <row r="48" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>75</v>
       </c>
@@ -3693,7 +3688,7 @@
       </c>
       <c r="I48" s="16"/>
     </row>
-    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" s="13" customFormat="1" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -3704,7 +3699,7 @@
       <c r="H49" s="30"/>
       <c r="I49" s="29"/>
     </row>
-    <row r="50" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>76</v>
       </c>
@@ -3727,16 +3722,16 @@
       <c r="H50" s="32"/>
       <c r="I50" s="16"/>
     </row>
-    <row r="51" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F51" s="48"/>
     </row>
-    <row r="52" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F52" s="48"/>
     </row>
-    <row r="53" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F53" s="48"/>
     </row>
-    <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" s="7" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F54" s="48"/>
     </row>
   </sheetData>
@@ -3759,9 +3754,9 @@
       <selection sqref="A1:AJ85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>4.6008E-2</v>
       </c>
@@ -3871,7 +3866,7 @@
         <v>-1.137E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>4.2536999999999998E-2</v>
       </c>
@@ -3981,7 +3976,7 @@
         <v>-1.358E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4.3115000000000001E-2</v>
       </c>
@@ -4091,7 +4086,7 @@
         <v>-1.5838999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4.3878E-2</v>
       </c>
@@ -4201,7 +4196,7 @@
         <v>-1.8959E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4.3221000000000002E-2</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>-2.0358000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4.1510999999999999E-2</v>
       </c>
@@ -4421,7 +4416,7 @@
         <v>-1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.7416999999999999E-2</v>
       </c>
@@ -4531,7 +4526,7 @@
         <v>-1.8426000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.4866000000000001E-2</v>
       </c>
@@ -4641,7 +4636,7 @@
         <v>-1.6534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.1199999999999999E-2</v>
       </c>
@@ -4751,7 +4746,7 @@
         <v>-1.4978999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.7692999999999999E-2</v>
       </c>
@@ -4861,7 +4856,7 @@
         <v>-1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2.4787E-2</v>
       </c>
@@ -4971,7 +4966,7 @@
         <v>-1.2409E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2.1585E-2</v>
       </c>
@@ -5081,7 +5076,7 @@
         <v>-1.1106E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.9362999999999998E-2</v>
       </c>
@@ -5191,7 +5186,7 @@
         <v>-1.0659999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.7412E-2</v>
       </c>
@@ -5301,7 +5296,7 @@
         <v>-1.0090999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.5740000000000001E-2</v>
       </c>
@@ -5411,7 +5406,7 @@
         <v>-9.4520000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.4527E-2</v>
       </c>
@@ -5521,7 +5516,7 @@
         <v>-9.214E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.379E-2</v>
       </c>
@@ -5631,7 +5626,7 @@
         <v>-9.1629999999999993E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.2543E-2</v>
       </c>
@@ -5741,7 +5736,7 @@
         <v>-9.1640000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.1979999999999999E-2</v>
       </c>
@@ -5851,7 +5846,7 @@
         <v>-9.2560000000000003E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.141E-2</v>
       </c>
@@ -5961,7 +5956,7 @@
         <v>-9.3310000000000008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.0869999999999999E-2</v>
       </c>
@@ -6071,7 +6066,7 @@
         <v>-9.4339999999999997E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1.0403000000000001E-2</v>
       </c>
@@ -6181,7 +6176,7 @@
         <v>-9.6699999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1.018E-2</v>
       </c>
@@ -6291,7 +6286,7 @@
         <v>-9.9600000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9.5879999999999993E-3</v>
       </c>
@@ -6401,7 +6396,7 @@
         <v>-9.9190000000000007E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.384E-3</v>
       </c>
@@ -6511,7 +6506,7 @@
         <v>-1.0031999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9.025E-3</v>
       </c>
@@ -6621,7 +6616,7 @@
         <v>-9.8969999999999995E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8.5540000000000008E-3</v>
       </c>
@@ -6731,7 +6726,7 @@
         <v>-9.5949999999999994E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>8.3199999999999993E-3</v>
       </c>
@@ -6841,7 +6836,7 @@
         <v>-9.2449999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>7.9459999999999999E-3</v>
       </c>
@@ -6951,7 +6946,7 @@
         <v>-8.9110000000000005E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>7.5760000000000003E-3</v>
       </c>
@@ -7061,7 +7056,7 @@
         <v>-8.286E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>7.5640000000000004E-3</v>
       </c>
@@ -7171,7 +7166,7 @@
         <v>-7.8480000000000008E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>7.2570000000000004E-3</v>
       </c>
@@ -7281,7 +7276,7 @@
         <v>-7.273E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7.1209999999999997E-3</v>
       </c>
@@ -7391,7 +7386,7 @@
         <v>-6.6730000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7.1009999999999997E-3</v>
       </c>
@@ -7501,7 +7496,7 @@
         <v>-6.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>6.9690000000000004E-3</v>
       </c>
@@ -7611,7 +7606,7 @@
         <v>-5.555E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7.1580000000000003E-3</v>
       </c>
@@ -7721,7 +7716,7 @@
         <v>-5.0730000000000003E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7.0470000000000003E-3</v>
       </c>
@@ -7831,7 +7826,7 @@
         <v>-4.6169999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>7.2830000000000004E-3</v>
       </c>
@@ -7941,7 +7936,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7.0229999999999997E-3</v>
       </c>
@@ -8051,7 +8046,7 @@
         <v>-4.0289999999999996E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6.6090000000000003E-3</v>
       </c>
@@ -8161,7 +8156,7 @@
         <v>-3.7910000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>6.4440000000000001E-3</v>
       </c>
@@ -8271,7 +8266,7 @@
         <v>-3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.9170000000000004E-3</v>
       </c>
@@ -8381,7 +8376,7 @@
         <v>-3.4169999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1.9090000000000001E-3</v>
       </c>
@@ -8491,7 +8486,7 @@
         <v>-4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1.421E-3</v>
       </c>
@@ -8601,7 +8596,7 @@
         <v>-1.9699999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1.3699999999999999E-3</v>
       </c>
@@ -8711,7 +8706,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9.7599999999999998E-4</v>
       </c>
@@ -8821,7 +8816,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5.5900000000000004E-4</v>
       </c>
@@ -8931,7 +8926,7 @@
         <v>6.4800000000000003E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>-1.1E-5</v>
       </c>
@@ -9041,7 +9036,7 @@
         <v>1.0020000000000001E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>-5.62E-4</v>
       </c>
@@ -9151,7 +9146,7 @@
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>-1.3389999999999999E-3</v>
       </c>
@@ -9261,7 +9256,7 @@
         <v>1.5380000000000001E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.0699999999999998E-3</v>
       </c>
@@ -9371,7 +9366,7 @@
         <v>1.722E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.702E-3</v>
       </c>
@@ -9481,7 +9476,7 @@
         <v>1.714E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8639999999999998E-3</v>
       </c>
@@ -9591,7 +9586,7 @@
         <v>1.7279999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.9510000000000001E-3</v>
       </c>
@@ -9701,7 +9696,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.8219999999999999E-3</v>
       </c>
@@ -9811,7 +9806,7 @@
         <v>1.3780000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.7550000000000001E-3</v>
       </c>
@@ -9921,7 +9916,7 @@
         <v>1.0640000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5140000000000002E-3</v>
       </c>
@@ -10031,7 +10026,7 @@
         <v>9.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.2439999999999999E-3</v>
       </c>
@@ -10141,7 +10136,7 @@
         <v>8.25E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0070000000000001E-3</v>
       </c>
@@ -10251,7 +10246,7 @@
         <v>6.9899999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.7780000000000001E-3</v>
       </c>
@@ -10361,7 +10356,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.655E-3</v>
       </c>
@@ -10471,7 +10466,7 @@
         <v>4.6700000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.6310000000000001E-3</v>
       </c>
@@ -10581,7 +10576,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1.5989999999999999E-3</v>
       </c>
@@ -10691,7 +10686,7 @@
         <v>1.93E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.493E-3</v>
       </c>
@@ -10801,7 +10796,7 @@
         <v>6.4999999999999994E-5</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.273E-3</v>
       </c>
@@ -10911,7 +10906,7 @@
         <v>-7.4999999999999993E-5</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.0189999999999999E-3</v>
       </c>
@@ -11021,7 +11016,7 @@
         <v>-1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-7.1699999999999997E-4</v>
       </c>
@@ -11131,7 +11126,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8E-5</v>
       </c>
@@ -11241,7 +11236,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3.28E-4</v>
       </c>
@@ -11351,7 +11346,7 @@
         <v>-5.0299999999999997E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.8299999999999997E-4</v>
       </c>
@@ -11461,7 +11456,7 @@
         <v>-6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8.4999999999999995E-4</v>
       </c>
@@ -11571,7 +11566,7 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.165E-3</v>
       </c>
@@ -11681,7 +11676,7 @@
         <v>-1.168E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.469E-3</v>
       </c>
@@ -11791,7 +11786,7 @@
         <v>-1.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.9949999999999998E-3</v>
       </c>
@@ -11901,7 +11896,7 @@
         <v>-1.586E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.3739999999999998E-3</v>
       </c>
@@ -12011,7 +12006,7 @@
         <v>-1.663E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.3760000000000001E-3</v>
       </c>
@@ -12121,7 +12116,7 @@
         <v>-1.732E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4130000000000002E-3</v>
       </c>
@@ -12231,7 +12226,7 @@
         <v>-1.681E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.166E-3</v>
       </c>
@@ -12341,7 +12336,7 @@
         <v>-1.699E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.9530000000000001E-3</v>
       </c>
@@ -12451,7 +12446,7 @@
         <v>-1.627E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.7539999999999999E-3</v>
       </c>
@@ -12561,7 +12556,7 @@
         <v>-1.565E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.653E-3</v>
       </c>
@@ -12671,7 +12666,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.4339999999999999E-3</v>
       </c>
@@ -12781,7 +12776,7 @@
         <v>-1.253E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.5529999999999999E-3</v>
       </c>
@@ -12891,7 +12886,7 @@
         <v>-1.103E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.704E-3</v>
       </c>
@@ -13001,7 +12996,7 @@
         <v>-8.92E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.725E-3</v>
       </c>
@@ -13129,7 +13124,7 @@
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1">
